--- a/Estadísticas Regionales/descriptor-de-campos_BUENA.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos_BUENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Estadísticas Regionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F91D17-11CB-417E-8153-7BA6DB21A3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14F40A-8B20-4A9A-81FB-E09AAAA1155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2328,28 +2328,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2359,7 +2337,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2398,7 +2376,13 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2410,10 +2394,26 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2446,8 +2446,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>87085</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Glosa Sector">
@@ -2470,7 +2470,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2524,8 +2524,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Glosa Variable">
@@ -2548,7 +2548,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2602,8 +2602,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>33867</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Unidad de Medida">
@@ -2626,7 +2626,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2680,8 +2680,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Fuente">
@@ -2704,7 +2704,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2810,27 +2810,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2DFF176-3056-4861-BA91-9605D5038D78}" name="Tabla1" displayName="Tabla1" ref="A14:G186" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2DFF176-3056-4861-BA91-9605D5038D78}" name="Tabla1" displayName="Tabla1" ref="A14:G186" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A14:G186" xr:uid="{F2DFF176-3056-4861-BA91-9605D5038D78}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Minería"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Cobre"/>
+        <filter val="Construcción"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E3390BBC-0412-4305-A936-9DE0A42CEE37}" name="Código Sector" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{676AA183-6EAF-4191-9F53-AF189B8BF244}" name="Glosa Sector" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{CB06FBDE-876C-4FF7-8153-F4F192947E82}" name="Código Variable" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{1A09FC40-D693-4170-B017-C41B3804BC98}" name="Glosa Variable" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0A77EA22-5E53-4717-BA28-553435B154C3}" name="Unidad de Medida" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{E2CFAA7D-8864-472D-ACB4-42CBD8FF1DB8}" name="Fuente" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{51F4EAE2-7E4A-41F9-A0C7-D830415FD0A3}" name="Definición" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E3390BBC-0412-4305-A936-9DE0A42CEE37}" name="Código Sector" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{676AA183-6EAF-4191-9F53-AF189B8BF244}" name="Glosa Sector" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CB06FBDE-876C-4FF7-8153-F4F192947E82}" name="Código Variable" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{1A09FC40-D693-4170-B017-C41B3804BC98}" name="Glosa Variable" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{0A77EA22-5E53-4717-BA28-553435B154C3}" name="Unidad de Medida" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E2CFAA7D-8864-472D-ACB4-42CBD8FF1DB8}" name="Fuente" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{51F4EAE2-7E4A-41F9-A0C7-D830415FD0A3}" name="Definición" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3103,7 +3098,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F192" sqref="F192"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4789,7 +4784,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>3</v>
       </c>
@@ -5916,7 +5911,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="25">
         <v>6</v>
       </c>
@@ -5939,7 +5934,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="25">
         <v>6</v>
       </c>
@@ -5962,7 +5957,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="25">
         <v>6</v>
       </c>
@@ -5985,7 +5980,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="25">
         <v>6</v>
       </c>
@@ -6008,7 +6003,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="25">
         <v>6</v>
       </c>
@@ -6031,7 +6026,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="25">
         <v>6</v>
       </c>
@@ -6054,7 +6049,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="25">
         <v>6</v>
       </c>
@@ -6077,7 +6072,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="25">
         <v>6</v>
       </c>
@@ -6100,7 +6095,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
         <v>6</v>
       </c>
@@ -6123,7 +6118,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="25">
         <v>6</v>
       </c>
@@ -6146,7 +6141,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="25">
         <v>6</v>
       </c>
@@ -6169,7 +6164,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
         <v>6</v>
       </c>
@@ -6192,7 +6187,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="25">
         <v>6</v>
       </c>
@@ -6215,7 +6210,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>6</v>
       </c>
@@ -6238,7 +6233,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>6</v>
       </c>
@@ -6261,7 +6256,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
         <v>6</v>
       </c>
@@ -6284,7 +6279,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
         <v>6</v>
       </c>
@@ -6307,7 +6302,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -6330,7 +6325,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
         <v>6</v>
       </c>
@@ -6353,7 +6348,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>6</v>
       </c>
@@ -6376,7 +6371,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>6</v>
       </c>

--- a/Estadísticas Regionales/descriptor-de-campos_BUENA.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos_BUENA.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Estadísticas Regionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14F40A-8B20-4A9A-81FB-E09AAAA1155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE97319-C72F-425B-AD90-BE07F968692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
-    <sheet name="Notas técnicas" sheetId="4" r:id="rId2"/>
-    <sheet name="Notas Separación Biobío - Ñuble" sheetId="5" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId2"/>
+    <sheet name="Notas técnicas" sheetId="4" r:id="rId3"/>
+    <sheet name="Notas Separación Biobío - Ñuble" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$14:$G$186</definedName>
@@ -32,10 +33,10 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="599">
   <si>
     <t>Definición</t>
   </si>
@@ -2100,12 +2101,51 @@
       <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (Mayo de 2021) debido a que no se encuentra disponible.</t>
     </r>
   </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Suma de cosecha de troza de madera sin corteza, destinada a aserradero y a industria de la celulosa expresada en m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a los clientes residenciales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a las empresas industriales. </t>
+  </si>
+  <si>
+    <t>Corresponde a la energía eléctrica distribuida en MWH a los locales y empresas dedicadas al comercio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a las empresas dedicadas al rubro de la minería. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a entidades y particulares que se dedican al cultivo y trabajo de la tierra. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH hacia los sectores de transporte, alumbrado público, fiscal, municipal y otros. </t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Región</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008053557</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008080800</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2139,6 +2179,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2261,7 +2308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2321,6 +2368,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2514,15 +2567,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1397363</xdr:colOff>
+      <xdr:colOff>1397362</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>31569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>143934</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:colOff>4106332</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2592,15 +2645,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>231261</xdr:colOff>
+      <xdr:colOff>4114799</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30238</xdr:rowOff>
+      <xdr:rowOff>38705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3615267</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2636,8 +2689,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9375261" y="30238"/>
-              <a:ext cx="3384006" cy="2052562"/>
+              <a:off x="13258799" y="38705"/>
+              <a:ext cx="1481667" cy="2052562"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2669,16 +2722,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3663768</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>471835</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>294035</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>725835</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>42334</xdr:rowOff>
+      <xdr:rowOff>93134</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2714,7 +2767,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12807768" y="0"/>
+              <a:off x="14814368" y="50800"/>
               <a:ext cx="1828800" cy="2091267"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2814,7 +2867,18 @@
   <autoFilter ref="A14:G186" xr:uid="{F2DFF176-3056-4861-BA91-9605D5038D78}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Construcción"/>
+        <filter val="Electricidad, Gas y Agua"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Distribución eléctrica"/>
+        <filter val="Distribución Electrica Agrícola"/>
+        <filter val="Distribución Electrica Comercial"/>
+        <filter val="Distribución Electrica Industrial"/>
+        <filter val="Distribución Electrica Minería"/>
+        <filter val="Distribución Electrica Residencial"/>
+        <filter val="Distribución Electrica Varios"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3097,8 +3161,8 @@
   <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
+      <pane ySplit="14" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5750,7 +5814,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="25">
         <v>5</v>
       </c>
@@ -5773,7 +5837,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="25">
         <v>5</v>
       </c>
@@ -5796,7 +5860,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="25">
         <v>5</v>
       </c>
@@ -5819,7 +5883,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -5842,7 +5906,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="25">
         <v>5</v>
       </c>
@@ -5865,7 +5929,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="25">
         <v>5</v>
       </c>
@@ -5888,7 +5952,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="25">
         <v>5</v>
       </c>
@@ -5911,7 +5975,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="25">
         <v>6</v>
       </c>
@@ -5934,7 +5998,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="25">
         <v>6</v>
       </c>
@@ -5957,7 +6021,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="25">
         <v>6</v>
       </c>
@@ -5980,7 +6044,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="25">
         <v>6</v>
       </c>
@@ -6003,7 +6067,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="25">
         <v>6</v>
       </c>
@@ -6026,7 +6090,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="25">
         <v>6</v>
       </c>
@@ -6049,7 +6113,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="25">
         <v>6</v>
       </c>
@@ -6072,7 +6136,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="25">
         <v>6</v>
       </c>
@@ -6095,7 +6159,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
         <v>6</v>
       </c>
@@ -6118,7 +6182,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="25">
         <v>6</v>
       </c>
@@ -6141,7 +6205,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="25">
         <v>6</v>
       </c>
@@ -6164,7 +6228,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
         <v>6</v>
       </c>
@@ -6187,7 +6251,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="25">
         <v>6</v>
       </c>
@@ -6210,7 +6274,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>6</v>
       </c>
@@ -6233,7 +6297,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>6</v>
       </c>
@@ -6256,7 +6320,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
         <v>6</v>
       </c>
@@ -6279,7 +6343,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
         <v>6</v>
       </c>
@@ -6302,7 +6366,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -6325,7 +6389,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
         <v>6</v>
       </c>
@@ -6348,7 +6412,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>6</v>
       </c>
@@ -6371,7 +6435,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>6</v>
       </c>
@@ -7151,6 +7215,3151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D41DDE-5E18-48DB-8A2B-C532BC661F21}">
+  <dimension ref="A2:H174"/>
+  <sheetViews>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5546875" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H42" s="29"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="H43" s="29"/>
+    </row>
+    <row r="44" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="H44" s="29"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="H47" s="29"/>
+    </row>
+    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H48" s="29"/>
+    </row>
+    <row r="49" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="H51" s="29"/>
+    </row>
+    <row r="52" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H52" s="29"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="H54" s="29"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="H57" s="29"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A61" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A62" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="H67" s="29"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="H68" s="29"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="H69" s="29"/>
+    </row>
+    <row r="70" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A70" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="28">
+        <v>0</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="96" x14ac:dyDescent="0.3">
+      <c r="A71" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="F71" s="28">
+        <v>0</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="F72" s="28">
+        <v>0</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="H74" s="29"/>
+    </row>
+    <row r="75" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H75" s="29"/>
+    </row>
+    <row r="76" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A76" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H76" s="29"/>
+    </row>
+    <row r="77" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A77" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H77" s="29"/>
+    </row>
+    <row r="78" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A78" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="H78" s="29"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H79" s="29"/>
+    </row>
+    <row r="80" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A80" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="H80" s="29"/>
+    </row>
+    <row r="81" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A81" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A82" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="H82" s="29"/>
+    </row>
+    <row r="83" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A83" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="H83" s="29"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="H84" s="29"/>
+    </row>
+    <row r="85" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A85" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="H85" s="29"/>
+    </row>
+    <row r="86" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A86" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="H86" s="29"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="H87" s="29"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="H88" s="29"/>
+    </row>
+    <row r="89" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A89" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="H89" s="29"/>
+    </row>
+    <row r="90" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A90" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="H90" s="29"/>
+    </row>
+    <row r="91" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A91" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="H91" s="29"/>
+    </row>
+    <row r="92" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A92" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H92" s="29"/>
+    </row>
+    <row r="93" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A93" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H93" s="29"/>
+    </row>
+    <row r="94" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A94" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H94" s="29"/>
+    </row>
+    <row r="95" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A95" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H95" s="29"/>
+    </row>
+    <row r="96" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H96" s="29"/>
+    </row>
+    <row r="97" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A97" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H97" s="29"/>
+    </row>
+    <row r="98" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A98" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H98" s="29"/>
+    </row>
+    <row r="99" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A99" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="H99" s="29"/>
+    </row>
+    <row r="100" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A100" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="H100" s="29"/>
+    </row>
+    <row r="101" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A101" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="H101" s="29"/>
+    </row>
+    <row r="102" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A102" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="H102" s="29"/>
+    </row>
+    <row r="103" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A103" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H103" s="29"/>
+    </row>
+    <row r="104" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A104" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="H104" s="29"/>
+    </row>
+    <row r="105" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A105" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="H105" s="29"/>
+    </row>
+    <row r="106" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A106" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="H106" s="29"/>
+    </row>
+    <row r="107" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A107" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="H107" s="29"/>
+    </row>
+    <row r="108" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A108" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="H108" s="29"/>
+    </row>
+    <row r="109" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A109" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="H109" s="29"/>
+    </row>
+    <row r="110" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A110" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E110" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H110" s="29"/>
+    </row>
+    <row r="111" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A111" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H111" s="29"/>
+    </row>
+    <row r="112" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A112" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H112" s="29"/>
+    </row>
+    <row r="113" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A113" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H113" s="29"/>
+    </row>
+    <row r="114" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A114" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="H114" s="29"/>
+    </row>
+    <row r="115" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A115" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H115" s="29"/>
+    </row>
+    <row r="116" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A116" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="H116" s="29"/>
+    </row>
+    <row r="117" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A117" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="H117" s="29"/>
+    </row>
+    <row r="118" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A118" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="H118" s="29"/>
+    </row>
+    <row r="119" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A119" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="H119" s="29"/>
+    </row>
+    <row r="120" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A120" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="H120" s="29"/>
+    </row>
+    <row r="121" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A121" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E121" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="H121" s="29"/>
+    </row>
+    <row r="122" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A122" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E122" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H122" s="29"/>
+    </row>
+    <row r="123" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A123" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E123" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="H123" s="29"/>
+    </row>
+    <row r="124" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A124" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H124" s="29"/>
+    </row>
+    <row r="125" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A125" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E125" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="H125" s="29"/>
+    </row>
+    <row r="126" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A126" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="H126" s="29"/>
+    </row>
+    <row r="127" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A127" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="H127" s="29"/>
+    </row>
+    <row r="128" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A128" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H128" s="29"/>
+    </row>
+    <row r="129" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A129" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E129" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H129" s="29"/>
+    </row>
+    <row r="130" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A130" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H130" s="29"/>
+    </row>
+    <row r="131" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A131" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="H131" s="29"/>
+    </row>
+    <row r="132" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A132" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E132" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="H132" s="29"/>
+    </row>
+    <row r="133" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A133" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="H133" s="29"/>
+    </row>
+    <row r="134" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A134" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E134" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="H134" s="29"/>
+    </row>
+    <row r="135" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A135" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D135" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E135" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="H135" s="29"/>
+    </row>
+    <row r="136" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A136" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="H136" s="29"/>
+    </row>
+    <row r="137" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A137" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="H137" s="29"/>
+    </row>
+    <row r="138" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A138" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D138" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E138" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="H138" s="29"/>
+    </row>
+    <row r="139" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A139" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E139" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="H139" s="29"/>
+    </row>
+    <row r="140" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A140" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E140" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="H140" s="29"/>
+    </row>
+    <row r="141" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A141" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E141" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="H141" s="29"/>
+    </row>
+    <row r="142" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A142" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="H142" s="29"/>
+    </row>
+    <row r="143" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A143" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E143" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="H143" s="29"/>
+    </row>
+    <row r="144" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A144" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B144" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E144" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="H144" s="29"/>
+    </row>
+    <row r="145" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A145" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D145" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="H145" s="29"/>
+    </row>
+    <row r="146" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A146" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D146" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E146" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="H146" s="29"/>
+    </row>
+    <row r="147" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A147" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="H147" s="29"/>
+    </row>
+    <row r="148" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A148" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E148" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="H148" s="29"/>
+    </row>
+    <row r="149" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A149" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E149" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="H149" s="29"/>
+    </row>
+    <row r="150" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A150" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="H150" s="29"/>
+    </row>
+    <row r="151" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A151" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C151" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D151" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E151" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="H151" s="29"/>
+    </row>
+    <row r="152" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A152" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B152" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D152" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E152" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="H152" s="29"/>
+    </row>
+    <row r="153" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A153" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B153" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E153" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="H153" s="29"/>
+    </row>
+    <row r="154" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+      <c r="A154" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C154" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E154" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="H154" s="29"/>
+    </row>
+    <row r="155" spans="1:8" ht="96" x14ac:dyDescent="0.3">
+      <c r="A155" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E155" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="H155" s="29"/>
+    </row>
+    <row r="156" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A156" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E156" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="H156" s="29"/>
+    </row>
+    <row r="157" spans="1:8" ht="96" x14ac:dyDescent="0.3">
+      <c r="A157" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E157" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="H157" s="29"/>
+    </row>
+    <row r="158" spans="1:8" ht="96" x14ac:dyDescent="0.3">
+      <c r="A158" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E158" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="H158" s="29"/>
+    </row>
+    <row r="159" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A159" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D159" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E159" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="H159" s="29"/>
+    </row>
+    <row r="160" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A160" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D160" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E160" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="H160" s="29"/>
+    </row>
+    <row r="161" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A161" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D161" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E161" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="H161" s="29"/>
+    </row>
+    <row r="162" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A162" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E162" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="H162" s="29"/>
+    </row>
+    <row r="163" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A163" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D163" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E163" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="H163" s="29"/>
+    </row>
+    <row r="164" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A164" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D164" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E164" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="H164" s="29"/>
+    </row>
+    <row r="165" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A165" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D165" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E165" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="H165" s="29"/>
+    </row>
+    <row r="166" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A166" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E166" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="H166" s="29"/>
+    </row>
+    <row r="167" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A167" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E167" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="H167" s="29"/>
+    </row>
+    <row r="168" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A168" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B168" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D168" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E168" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="H168" s="29"/>
+    </row>
+    <row r="169" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A169" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D169" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E169" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="H169" s="29"/>
+    </row>
+    <row r="170" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A170" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D170" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E170" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="H170" s="29"/>
+    </row>
+    <row r="171" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A171" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B171" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D171" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E171" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="H171" s="29"/>
+    </row>
+    <row r="172" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A172" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E172" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="H172" s="29"/>
+    </row>
+    <row r="173" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A173" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E173" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="H173" s="29"/>
+    </row>
+    <row r="174" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A174" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E174" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="H174" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -7257,7 +10466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -7361,7 +10570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:B170"/>
   <sheetViews>

--- a/Estadísticas Regionales/descriptor-de-campos_BUENA.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos_BUENA.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Estadísticas Regionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE97319-C72F-425B-AD90-BE07F968692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11097E-E0C6-463A-95EC-D29DE16DC26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="6" r:id="rId2"/>
-    <sheet name="Notas técnicas" sheetId="4" r:id="rId3"/>
-    <sheet name="Notas Separación Biobío - Ñuble" sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="7" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId3"/>
+    <sheet name="Notas técnicas" sheetId="4" r:id="rId4"/>
+    <sheet name="Notas Separación Biobío - Ñuble" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$14:$G$186</definedName>
@@ -33,10 +34,10 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="641">
   <si>
     <t>Definición</t>
   </si>
@@ -2139,6 +2140,132 @@
   </si>
   <si>
     <t>https://analytics.zoho.com/open-view/2395394000008080800</t>
+  </si>
+  <si>
+    <t>Industrial Anchoveta</t>
+  </si>
+  <si>
+    <t>Industrial Caballa</t>
+  </si>
+  <si>
+    <t>Industrial Jurel</t>
+  </si>
+  <si>
+    <t>Industrial Reineta</t>
+  </si>
+  <si>
+    <t>Industrial Bacaladillo o Mote</t>
+  </si>
+  <si>
+    <t>Industrial Jibia o Calamar Rojo</t>
+  </si>
+  <si>
+    <t>Industrial Merluza de Cola</t>
+  </si>
+  <si>
+    <t>Industrial Merluza del Sur o Austral</t>
+  </si>
+  <si>
+    <t>Industrial Sardina Común</t>
+  </si>
+  <si>
+    <t>Desembarque Artesanal</t>
+  </si>
+  <si>
+    <t>Artesanal Cochayuyo</t>
+  </si>
+  <si>
+    <t>Artesanal Huiro</t>
+  </si>
+  <si>
+    <t>Artesanal Luga-Roja</t>
+  </si>
+  <si>
+    <t>Artesanal Pelillo</t>
+  </si>
+  <si>
+    <t>Artesanal Anchoveta</t>
+  </si>
+  <si>
+    <t>Artesanal Jurel</t>
+  </si>
+  <si>
+    <t>Artesanal Pampanito</t>
+  </si>
+  <si>
+    <t>Artesanal Reineta</t>
+  </si>
+  <si>
+    <t>Artesanal Sardina Austral</t>
+  </si>
+  <si>
+    <t>Artesanal Sierra</t>
+  </si>
+  <si>
+    <t>Artesanal Almeja</t>
+  </si>
+  <si>
+    <t>Artesanal Cholga</t>
+  </si>
+  <si>
+    <t>Artesanal Chorito</t>
+  </si>
+  <si>
+    <t>Artesanal Choro</t>
+  </si>
+  <si>
+    <t>Artesanal Centolla</t>
+  </si>
+  <si>
+    <t>Artesanal Jaiba Marmola</t>
+  </si>
+  <si>
+    <t>Artesanal Erizo</t>
+  </si>
+  <si>
+    <t>Desembarque Industrial</t>
+  </si>
+  <si>
+    <t>Cosechas Acuícolas</t>
+  </si>
+  <si>
+    <t>Acuicultura Chorito</t>
+  </si>
+  <si>
+    <t>Acuicultura Trucha Arcoiris</t>
+  </si>
+  <si>
+    <t>Industrial Merluza Común</t>
+  </si>
+  <si>
+    <t>Acuicultura Salmón del Atlántico</t>
+  </si>
+  <si>
+    <t>Acuicultura Salmón Plateado o Coho</t>
+  </si>
+  <si>
+    <t>Artesanal Juliana o Tawera</t>
+  </si>
+  <si>
+    <t>Artesanal Jibia o Calamar Rojo</t>
+  </si>
+  <si>
+    <t>Artesanal Sardina Común</t>
+  </si>
+  <si>
+    <t>Artesanal Merluza del Sur o Austral</t>
+  </si>
+  <si>
+    <t>Artesanal Machuelo o Tritre</t>
+  </si>
+  <si>
+    <t>Artesanal Bacaladillo o Mote</t>
+  </si>
+  <si>
+    <t>Artesanal Luga Negra o Crespa</t>
+  </si>
+  <si>
+    <t>Artesanal Centollón</t>
   </si>
 </sst>
 </file>
@@ -2572,8 +2699,8 @@
       <xdr:rowOff>31569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4106332</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>618065</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>110067</xdr:rowOff>
     </xdr:to>
@@ -2644,14 +2771,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4114799</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>626532</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>397933</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
@@ -2722,14 +2849,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>471835</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607301</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>725835</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73901</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>93134</xdr:rowOff>
     </xdr:to>
@@ -2856,7 +2983,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Glosa Sector" xr10:uid="{DCC8E7E9-E3A3-44BF-A846-AD060D46405B}" cache="SegmentaciónDeDatos_Glosa_Sector" caption="Glosa Sector" columnCount="2" rowHeight="234950"/>
-  <slicer name="Glosa Variable" xr10:uid="{ABCF650F-36D9-4435-92D2-DDEC32089D3B}" cache="SegmentaciónDeDatos_Glosa_Variable" caption="Glosa Variable" columnCount="2" rowHeight="234950"/>
+  <slicer name="Glosa Variable" xr10:uid="{ABCF650F-36D9-4435-92D2-DDEC32089D3B}" cache="SegmentaciónDeDatos_Glosa_Variable" caption="Glosa Variable" startItem="32" columnCount="2" rowHeight="234950"/>
   <slicer name="Unidad de Medida" xr10:uid="{13EA383D-FAFC-42F5-8F7E-9B82FB59FFC5}" cache="SegmentaciónDeDatos_Unidad_de_Medida" caption="Unidad de Medida" columnCount="2" rowHeight="234950"/>
   <slicer name="Fuente" xr10:uid="{BC9D6098-9D7B-4AB3-881E-6B68C48FECC9}" cache="SegmentaciónDeDatos_Fuente" caption="Fuente" rowHeight="234950"/>
 </slicers>
@@ -2867,18 +2994,7 @@
   <autoFilter ref="A14:G186" xr:uid="{F2DFF176-3056-4861-BA91-9605D5038D78}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Electricidad, Gas y Agua"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Distribución eléctrica"/>
-        <filter val="Distribución Electrica Agrícola"/>
-        <filter val="Distribución Electrica Comercial"/>
-        <filter val="Distribución Electrica Industrial"/>
-        <filter val="Distribución Electrica Minería"/>
-        <filter val="Distribución Electrica Residencial"/>
-        <filter val="Distribución Electrica Varios"/>
+        <filter val="Pesca"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3161,8 +3277,8 @@
   <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H127" sqref="H127"/>
+      <pane ySplit="14" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3172,8 +3288,8 @@
     <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
@@ -3399,7 +3515,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>2</v>
       </c>
@@ -3422,7 +3538,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>2</v>
       </c>
@@ -3445,7 +3561,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>2</v>
       </c>
@@ -3468,7 +3584,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>2</v>
       </c>
@@ -3491,7 +3607,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>2</v>
       </c>
@@ -3514,7 +3630,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <v>2</v>
       </c>
@@ -3537,7 +3653,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <v>2</v>
       </c>
@@ -3560,7 +3676,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
         <v>2</v>
       </c>
@@ -3583,7 +3699,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="25">
         <v>2</v>
       </c>
@@ -3606,7 +3722,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>2</v>
       </c>
@@ -3629,7 +3745,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
         <v>2</v>
       </c>
@@ -3652,7 +3768,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <v>2</v>
       </c>
@@ -3675,7 +3791,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>2</v>
       </c>
@@ -3698,7 +3814,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>2</v>
       </c>
@@ -3721,7 +3837,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <v>2</v>
       </c>
@@ -3744,7 +3860,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>2</v>
       </c>
@@ -3767,7 +3883,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="25">
         <v>2</v>
       </c>
@@ -3790,7 +3906,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <v>2</v>
       </c>
@@ -3813,7 +3929,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="25">
         <v>2</v>
       </c>
@@ -3836,7 +3952,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <v>2</v>
       </c>
@@ -3859,7 +3975,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>2</v>
       </c>
@@ -3882,7 +3998,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <v>2</v>
       </c>
@@ -3905,7 +4021,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="25">
         <v>2</v>
       </c>
@@ -3928,7 +4044,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="25">
         <v>2</v>
       </c>
@@ -3951,7 +4067,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="25">
         <v>2</v>
       </c>
@@ -3974,7 +4090,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <v>2</v>
       </c>
@@ -3997,7 +4113,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
         <v>2</v>
       </c>
@@ -4020,7 +4136,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <v>2</v>
       </c>
@@ -4043,7 +4159,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <v>2</v>
       </c>
@@ -4066,7 +4182,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="25">
         <v>2</v>
       </c>
@@ -4089,7 +4205,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
         <v>2</v>
       </c>
@@ -4112,7 +4228,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="25">
         <v>2</v>
       </c>
@@ -4135,7 +4251,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="25">
         <v>2</v>
       </c>
@@ -4158,7 +4274,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="25">
         <v>2</v>
       </c>
@@ -4181,7 +4297,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>2</v>
       </c>
@@ -4204,7 +4320,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -4227,7 +4343,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>2</v>
       </c>
@@ -4250,7 +4366,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>2</v>
       </c>
@@ -4273,7 +4389,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>2</v>
       </c>
@@ -4296,7 +4412,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>2</v>
       </c>
@@ -4319,7 +4435,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>2</v>
       </c>
@@ -4342,7 +4458,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>2</v>
       </c>
@@ -4365,7 +4481,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="25">
         <v>2</v>
       </c>
@@ -4388,7 +4504,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>2</v>
       </c>
@@ -4411,7 +4527,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="25">
         <v>2</v>
       </c>
@@ -4434,7 +4550,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>2</v>
       </c>
@@ -4457,7 +4573,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -4480,7 +4596,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>2</v>
       </c>
@@ -4503,7 +4619,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>2</v>
       </c>
@@ -4526,7 +4642,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>2</v>
       </c>
@@ -4549,7 +4665,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>2</v>
       </c>
@@ -4572,7 +4688,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>2</v>
       </c>
@@ -4595,7 +4711,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>2</v>
       </c>
@@ -4618,7 +4734,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>2</v>
       </c>
@@ -4641,7 +4757,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>2</v>
       </c>
@@ -4664,7 +4780,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>2</v>
       </c>
@@ -4687,7 +4803,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="25">
         <v>2</v>
       </c>
@@ -4710,7 +4826,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>2</v>
       </c>
@@ -4733,7 +4849,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>2</v>
       </c>
@@ -4756,7 +4872,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>2</v>
       </c>
@@ -5814,7 +5930,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25">
         <v>5</v>
       </c>
@@ -5837,7 +5953,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25">
         <v>5</v>
       </c>
@@ -5860,7 +5976,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25">
         <v>5</v>
       </c>
@@ -5883,7 +5999,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -5906,7 +6022,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25">
         <v>5</v>
       </c>
@@ -5929,7 +6045,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25">
         <v>5</v>
       </c>
@@ -5952,7 +6068,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="25">
         <v>5</v>
       </c>
@@ -7215,6 +7331,984 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A000FBF7-0F2D-46A0-B703-E131FFF5E775}">
+  <dimension ref="C3:F62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:F62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="str">
+        <f>+PROPER(C3)</f>
+        <v>Desembarque Artesanal</v>
+      </c>
+      <c r="E3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D62" si="0">+PROPER(C4)</f>
+        <v>Artesanal Cochayuyo</v>
+      </c>
+      <c r="E4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F4" t="str">
+        <f>+MID(E4,11,50)</f>
+        <v>Cochayuyo</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Huiro</v>
+      </c>
+      <c r="E5" t="s">
+        <v>610</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F34" si="1">+MID(E5,11,50)</f>
+        <v>Huiro</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Luga Negra O Crespa</v>
+      </c>
+      <c r="E6" t="s">
+        <v>639</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>Luga Negra o Crespa</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Luga-Roja</v>
+      </c>
+      <c r="E7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>Luga-Roja</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Pelillo</v>
+      </c>
+      <c r="E8" t="s">
+        <v>612</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>Pelillo</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Anchoveta</v>
+      </c>
+      <c r="E9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>Anchoveta</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Bacaladillo O Mote</v>
+      </c>
+      <c r="E10" t="s">
+        <v>638</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>Bacaladillo o Mote</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Jurel</v>
+      </c>
+      <c r="E11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>Jurel</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Machuelo O Tritre</v>
+      </c>
+      <c r="E12" t="s">
+        <v>637</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>Machuelo o Tritre</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Merluza Del Sur O Austral</v>
+      </c>
+      <c r="E13" t="s">
+        <v>636</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>Merluza del Sur o Austral</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Pampanito</v>
+      </c>
+      <c r="E14" t="s">
+        <v>615</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>Pampanito</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Reineta</v>
+      </c>
+      <c r="E15" t="s">
+        <v>616</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>Reineta</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Sardina Austral</v>
+      </c>
+      <c r="E16" t="s">
+        <v>617</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>Sardina Austral</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Sardina Comun</v>
+      </c>
+      <c r="E17" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>Sardina Común</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Sierra</v>
+      </c>
+      <c r="E18" t="s">
+        <v>618</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>Sierra</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Almeja</v>
+      </c>
+      <c r="E19" t="s">
+        <v>619</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>Almeja</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Cholga</v>
+      </c>
+      <c r="E20" t="s">
+        <v>620</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>Cholga</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Chorito</v>
+      </c>
+      <c r="E21" t="s">
+        <v>621</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>Chorito</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Choro</v>
+      </c>
+      <c r="E22" t="s">
+        <v>622</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>Choro</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Jibia O Calamar Rojo</v>
+      </c>
+      <c r="E23" t="s">
+        <v>634</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>Jibia o Calamar Rojo</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Juliana O Tawera</v>
+      </c>
+      <c r="E24" t="s">
+        <v>633</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>Juliana o Tawera</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Centolla</v>
+      </c>
+      <c r="E25" t="s">
+        <v>623</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>Centolla</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Centollon</v>
+      </c>
+      <c r="E26" t="s">
+        <v>640</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>Centollón</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Jaiba Marmola</v>
+      </c>
+      <c r="E27" t="s">
+        <v>624</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>Jaiba Marmola</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Erizo</v>
+      </c>
+      <c r="E28" t="s">
+        <v>625</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>Erizo</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Resto</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>Resto</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Algas</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>Algas</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Peces</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>Peces</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Moluscos</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>Moluscos</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Crustáceos</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>Crustáceos</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Artesanal Otros</v>
+      </c>
+      <c r="E34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>Otros</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Desembarque Industrial</v>
+      </c>
+      <c r="E35" t="s">
+        <v>626</v>
+      </c>
+      <c r="F35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Anchoveta</v>
+      </c>
+      <c r="E36" t="s">
+        <v>599</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ref="F5:F62" si="2">+MID(E36,12,50)</f>
+        <v>Anchoveta</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Bacaladillo O Mote</v>
+      </c>
+      <c r="E37" t="s">
+        <v>603</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>Bacaladillo o Mote</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Caballa</v>
+      </c>
+      <c r="E38" t="s">
+        <v>600</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v>Caballa</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Jurel</v>
+      </c>
+      <c r="E39" t="s">
+        <v>601</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="2"/>
+        <v>Jurel</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Merluza Comun</v>
+      </c>
+      <c r="E40" t="s">
+        <v>630</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>Merluza Común</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Merluza De Cola</v>
+      </c>
+      <c r="E41" t="s">
+        <v>605</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v>Merluza de Cola</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Merluza Del Sur O Austral</v>
+      </c>
+      <c r="E42" t="s">
+        <v>606</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>Merluza del Sur o Austral</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Reineta</v>
+      </c>
+      <c r="E43" t="s">
+        <v>602</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v>Reineta</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Sardina Comun</v>
+      </c>
+      <c r="E44" t="s">
+        <v>607</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="2"/>
+        <v>Sardina Común</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Jibia O Calamar Rojo</v>
+      </c>
+      <c r="E45" t="s">
+        <v>604</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="2"/>
+        <v>Jibia o Calamar Rojo</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Resto</v>
+      </c>
+      <c r="E46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v>Resto</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>375</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Algas</v>
+      </c>
+      <c r="E47" t="s">
+        <v>375</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="2"/>
+        <v>Algas</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Peces</v>
+      </c>
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v>Peces</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Moluscos</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="2"/>
+        <v>Moluscos</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>376</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Crustáceos</v>
+      </c>
+      <c r="E50" t="s">
+        <v>376</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="2"/>
+        <v>Crustáceos</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial Otros</v>
+      </c>
+      <c r="E51" t="s">
+        <v>377</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="2"/>
+        <v>Otros</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>Cosechas Acuícolas</v>
+      </c>
+      <c r="E52" t="s">
+        <v>627</v>
+      </c>
+      <c r="F52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>Acuicultura Chorito</v>
+      </c>
+      <c r="E53" t="s">
+        <v>628</v>
+      </c>
+      <c r="F53" t="str">
+        <f>+MID(E53,13,50)</f>
+        <v>Chorito</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>Acuicultura Salmon Del Atlantico</v>
+      </c>
+      <c r="E54" t="s">
+        <v>631</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" ref="F54:F62" si="3">+MID(E54,13,50)</f>
+        <v>Salmón del Atlántico</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>Acuicultura Salmon Plateado O Coho</v>
+      </c>
+      <c r="E55" t="s">
+        <v>632</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="3"/>
+        <v>Salmón Plateado o Coho</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>Acuicultura Trucha Arcoiris</v>
+      </c>
+      <c r="E56" t="s">
+        <v>629</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="3"/>
+        <v>Trucha Arcoiris</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>Acuicultura Resto</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="3"/>
+        <v>Resto</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>378</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>Acuicultura Algas</v>
+      </c>
+      <c r="E58" t="s">
+        <v>378</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="3"/>
+        <v>Algas</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>Acuicultura Peces</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="3"/>
+        <v>Peces</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>Acuicultura Moluscos</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="3"/>
+        <v>Moluscos</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>Acuicultura Crustáceos</v>
+      </c>
+      <c r="E61" t="s">
+        <v>379</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="3"/>
+        <v>Crustáceos</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>380</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>Acuicultura Otros</v>
+      </c>
+      <c r="E62" t="s">
+        <v>380</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="3"/>
+        <v>Otros</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D41DDE-5E18-48DB-8A2B-C532BC661F21}">
   <dimension ref="A2:H174"/>
   <sheetViews>
@@ -10359,7 +11453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -10466,7 +11560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -10570,7 +11664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:B170"/>
   <sheetViews>

--- a/Estadísticas Regionales/descriptor-de-campos_BUENA.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos_BUENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Estadísticas Regionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11097E-E0C6-463A-95EC-D29DE16DC26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89254D1C-4BDF-431B-8966-6AB76625E114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2983,7 +2983,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Glosa Sector" xr10:uid="{DCC8E7E9-E3A3-44BF-A846-AD060D46405B}" cache="SegmentaciónDeDatos_Glosa_Sector" caption="Glosa Sector" columnCount="2" rowHeight="234950"/>
-  <slicer name="Glosa Variable" xr10:uid="{ABCF650F-36D9-4435-92D2-DDEC32089D3B}" cache="SegmentaciónDeDatos_Glosa_Variable" caption="Glosa Variable" startItem="32" columnCount="2" rowHeight="234950"/>
+  <slicer name="Glosa Variable" xr10:uid="{ABCF650F-36D9-4435-92D2-DDEC32089D3B}" cache="SegmentaciónDeDatos_Glosa_Variable" caption="Glosa Variable" columnCount="2" rowHeight="234950"/>
   <slicer name="Unidad de Medida" xr10:uid="{13EA383D-FAFC-42F5-8F7E-9B82FB59FFC5}" cache="SegmentaciónDeDatos_Unidad_de_Medida" caption="Unidad de Medida" columnCount="2" rowHeight="234950"/>
   <slicer name="Fuente" xr10:uid="{BC9D6098-9D7B-4AB3-881E-6B68C48FECC9}" cache="SegmentaciónDeDatos_Fuente" caption="Fuente" rowHeight="234950"/>
 </slicers>
@@ -2991,13 +2991,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2DFF176-3056-4861-BA91-9605D5038D78}" name="Tabla1" displayName="Tabla1" ref="A14:G186" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A14:G186" xr:uid="{F2DFF176-3056-4861-BA91-9605D5038D78}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Pesca"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A14:G186" xr:uid="{F2DFF176-3056-4861-BA91-9605D5038D78}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E3390BBC-0412-4305-A936-9DE0A42CEE37}" name="Código Sector" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{676AA183-6EAF-4191-9F53-AF189B8BF244}" name="Glosa Sector" dataDxfId="5"/>
@@ -3277,8 +3271,8 @@
   <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73:D75"/>
+      <pane ySplit="14" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3354,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>1</v>
       </c>
@@ -3377,7 +3371,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>1</v>
       </c>
@@ -3400,7 +3394,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>1</v>
       </c>
@@ -3423,7 +3417,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>1</v>
       </c>
@@ -3446,7 +3440,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>1</v>
       </c>
@@ -3469,7 +3463,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>1</v>
       </c>
@@ -3492,7 +3486,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>1</v>
       </c>
@@ -4895,7 +4889,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>3</v>
       </c>
@@ -4918,7 +4912,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>3</v>
       </c>
@@ -4941,7 +4935,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>3</v>
       </c>
@@ -4964,7 +4958,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>3</v>
       </c>
@@ -4987,7 +4981,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="25">
         <v>3</v>
       </c>
@@ -5010,7 +5004,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="25">
         <v>3</v>
       </c>
@@ -5033,7 +5027,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="25">
         <v>3</v>
       </c>
@@ -5056,7 +5050,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="25">
         <v>3</v>
       </c>
@@ -5079,7 +5073,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>3</v>
       </c>
@@ -5102,7 +5096,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>3</v>
       </c>
@@ -5125,7 +5119,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="25">
         <v>4</v>
       </c>
@@ -5148,7 +5142,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="25">
         <v>4</v>
       </c>
@@ -5171,7 +5165,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="25">
         <v>4</v>
       </c>
@@ -5194,7 +5188,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="25">
         <v>4</v>
       </c>
@@ -5217,7 +5211,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="25">
         <v>4</v>
       </c>
@@ -5240,7 +5234,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="25">
         <v>4</v>
       </c>
@@ -5263,7 +5257,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="25">
         <v>4</v>
       </c>
@@ -5286,7 +5280,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="25">
         <v>4</v>
       </c>
@@ -5309,7 +5303,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="25">
         <v>4</v>
       </c>
@@ -5332,7 +5326,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="25">
         <v>4</v>
       </c>
@@ -5355,7 +5349,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>4</v>
       </c>
@@ -5378,7 +5372,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
         <v>4</v>
       </c>
@@ -5401,7 +5395,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="25">
         <v>4</v>
       </c>
@@ -5424,7 +5418,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="25">
         <v>4</v>
       </c>
@@ -5447,7 +5441,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="25">
         <v>4</v>
       </c>
@@ -5470,7 +5464,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>4</v>
       </c>
@@ -5493,7 +5487,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>4</v>
       </c>
@@ -5516,7 +5510,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>4</v>
       </c>
@@ -5539,7 +5533,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -5562,7 +5556,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="25">
         <v>4</v>
       </c>
@@ -5585,7 +5579,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>4</v>
       </c>
@@ -5608,7 +5602,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="25">
         <v>4</v>
       </c>
@@ -5631,7 +5625,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
         <v>4</v>
       </c>
@@ -5654,7 +5648,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
         <v>4</v>
       </c>
@@ -5677,7 +5671,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
         <v>4</v>
       </c>
@@ -5700,7 +5694,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="25">
         <v>4</v>
       </c>
@@ -5723,7 +5717,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="25">
         <v>4</v>
       </c>
@@ -5746,7 +5740,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="25">
         <v>4</v>
       </c>
@@ -5769,7 +5763,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="25">
         <v>4</v>
       </c>
@@ -5792,7 +5786,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="25">
         <v>4</v>
       </c>
@@ -5815,7 +5809,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="25">
         <v>5</v>
       </c>
@@ -5838,7 +5832,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="25">
         <v>5</v>
       </c>
@@ -5861,7 +5855,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="25">
         <v>5</v>
       </c>
@@ -5884,7 +5878,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="25">
         <v>5</v>
       </c>
@@ -5907,7 +5901,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="25">
         <v>5</v>
       </c>
@@ -5930,7 +5924,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="25">
         <v>5</v>
       </c>
@@ -5953,7 +5947,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="25">
         <v>5</v>
       </c>
@@ -5976,7 +5970,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="25">
         <v>5</v>
       </c>
@@ -5999,7 +5993,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -6022,7 +6016,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="25">
         <v>5</v>
       </c>
@@ -6045,7 +6039,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="25">
         <v>5</v>
       </c>
@@ -6068,7 +6062,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="25">
         <v>5</v>
       </c>
@@ -6091,7 +6085,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="25">
         <v>6</v>
       </c>
@@ -6114,7 +6108,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="25">
         <v>6</v>
       </c>
@@ -6137,7 +6131,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="25">
         <v>6</v>
       </c>
@@ -6160,7 +6154,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="25">
         <v>6</v>
       </c>
@@ -6183,7 +6177,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="25">
         <v>6</v>
       </c>
@@ -6206,7 +6200,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="25">
         <v>6</v>
       </c>
@@ -6229,7 +6223,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="25">
         <v>6</v>
       </c>
@@ -6252,7 +6246,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="25">
         <v>6</v>
       </c>
@@ -6275,7 +6269,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
         <v>6</v>
       </c>
@@ -6298,7 +6292,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="25">
         <v>6</v>
       </c>
@@ -6321,7 +6315,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="25">
         <v>6</v>
       </c>
@@ -6344,7 +6338,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
         <v>6</v>
       </c>
@@ -6367,7 +6361,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="25">
         <v>6</v>
       </c>
@@ -6390,7 +6384,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>6</v>
       </c>
@@ -6413,7 +6407,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>6</v>
       </c>
@@ -6436,7 +6430,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
         <v>6</v>
       </c>
@@ -6459,7 +6453,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
         <v>6</v>
       </c>
@@ -6482,7 +6476,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -6505,7 +6499,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
         <v>6</v>
       </c>
@@ -6528,7 +6522,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>6</v>
       </c>
@@ -6551,7 +6545,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>6</v>
       </c>
@@ -6574,7 +6568,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
         <v>7</v>
       </c>
@@ -6597,7 +6591,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="25">
         <v>7</v>
       </c>
@@ -6620,7 +6614,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
         <v>7</v>
       </c>
@@ -6643,7 +6637,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="25">
         <v>7</v>
       </c>
@@ -6666,7 +6660,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="25">
         <v>7</v>
       </c>
@@ -6689,7 +6683,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="25">
         <v>7</v>
       </c>
@@ -6712,7 +6706,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="25">
         <v>7</v>
       </c>
@@ -6735,7 +6729,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="25">
         <v>7</v>
       </c>
@@ -6758,7 +6752,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="25">
         <v>7</v>
       </c>
@@ -6781,7 +6775,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="25">
         <v>7</v>
       </c>
@@ -6804,7 +6798,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="25">
         <v>7</v>
       </c>
@@ -6827,7 +6821,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A166" s="25">
         <v>8</v>
       </c>
@@ -6850,7 +6844,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A167" s="25">
         <v>8</v>
       </c>
@@ -6873,7 +6867,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="25">
         <v>8</v>
       </c>
@@ -6896,7 +6890,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A169" s="25">
         <v>8</v>
       </c>
@@ -6919,7 +6913,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A170" s="25">
         <v>8</v>
       </c>
@@ -6942,7 +6936,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="25">
         <v>8</v>
       </c>
@@ -6965,7 +6959,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="25">
         <v>8</v>
       </c>
@@ -6988,7 +6982,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="25">
         <v>8</v>
       </c>
@@ -7011,7 +7005,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="25">
         <v>8</v>
       </c>
@@ -7034,7 +7028,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A175" s="25">
         <v>8</v>
       </c>
@@ -7057,7 +7051,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="25">
         <v>8</v>
       </c>
@@ -7080,7 +7074,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="25">
         <v>8</v>
       </c>
@@ -7103,7 +7097,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="25">
         <v>8</v>
       </c>
@@ -7126,7 +7120,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="25">
         <v>8</v>
       </c>
@@ -7149,7 +7143,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="25">
         <v>8</v>
       </c>
@@ -7172,7 +7166,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="25">
         <v>8</v>
       </c>
@@ -7195,7 +7189,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="25">
         <v>8</v>
       </c>
@@ -7218,7 +7212,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="25">
         <v>8</v>
       </c>
@@ -7241,7 +7235,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="25">
         <v>8</v>
       </c>
@@ -7264,7 +7258,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="25">
         <v>8</v>
       </c>
@@ -7287,7 +7281,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="25">
         <v>9</v>
       </c>
@@ -7884,7 +7878,7 @@
         <v>599</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" ref="F5:F62" si="2">+MID(E36,12,50)</f>
+        <f t="shared" ref="F36:F51" si="2">+MID(E36,12,50)</f>
         <v>Anchoveta</v>
       </c>
     </row>

--- a/Estadísticas Regionales/descriptor-de-campos_BUENA.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos_BUENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Estadísticas Regionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89254D1C-4BDF-431B-8966-6AB76625E114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57998208-6ECA-48E3-B82D-7D8B43E70C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3271,8 +3271,8 @@
   <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>1</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>1</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>1</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>1</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>1</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>3</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>3</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>3</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>3</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="25">
         <v>4</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="25">
         <v>4</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="25">
         <v>4</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>4</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
         <v>4</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="25">
         <v>4</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="25">
         <v>4</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>4</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>4</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>4</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
         <v>4</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="25">
         <v>4</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="25">
         <v>4</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="25">
         <v>4</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="25">
         <v>5</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="25">
         <v>5</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="25">
         <v>5</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="25">
         <v>5</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="25">
         <v>5</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="25">
         <v>6</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="25">
         <v>6</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="25">
         <v>6</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="25">
         <v>6</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="25">
         <v>6</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
         <v>6</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="25">
         <v>6</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="25">
         <v>6</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
         <v>6</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="25">
         <v>6</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>6</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>6</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
         <v>6</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
         <v>6</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
         <v>6</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>6</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>6</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="288" x14ac:dyDescent="0.3">
       <c r="A166" s="25">
         <v>8</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A167" s="25">
         <v>8</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A168" s="25">
         <v>8</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A169" s="25">
         <v>8</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A170" s="25">
         <v>8</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="25">
         <v>8</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="25">
         <v>8</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="25">
         <v>8</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="25">
         <v>8</v>
       </c>
